--- a/examples/sbtab/template.xlsx
+++ b/examples/sbtab/template.xlsx
@@ -6427,10 +6427,10 @@
     <t>'!!rxnconReactionList'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.8' date='2020-03-10 00:00:38'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-03-10 00:00:38' objTablesVersion='0.0.8'</t>
+    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.9' date='2020-04-26 21:10:56'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -6526,7 +6526,7 @@
     <t>rxnconReactionList</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' name='SBtab' description='Table/model and column/attribute definitions' date='2020-03-10 00:00:38' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' name='SBtab' description='Table/model and column/attribute definitions' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -6547,7 +6547,7 @@
     <t>!Verbose name plural</t>
   </si>
   <si>
-    <t>Model</t>
+    <t>Class</t>
   </si>
   <si>
     <t>row</t>
@@ -7300,7 +7300,7 @@
     <t>s_b_o_concentration</t>
   </si>
   <si>
-    <t>s_b_o_concentration_[m_m_log10]_median</t>
+    <t>s_b_o_concentration_m_m_log10_median</t>
   </si>
   <si>
     <t>s_b_o_equilibrium_constant</t>
@@ -7318,7 +7318,7 @@
     <t>sign</t>
   </si>
   <si>
-    <t>Enum</t>
+    <t>Enum([('+', 1), ('-', 2), ('0', 3)])</t>
   </si>
   <si>
     <t>Sign</t>
@@ -7648,7 +7648,7 @@
     <t>Target promoter</t>
   </si>
   <si>
-    <t>from</t>
+    <t>from_object</t>
   </si>
   <si>
     <t>Element at beginning of arrow</t>
@@ -7663,7 +7663,7 @@
     <t>Flag indicating non-symmetric relations</t>
   </si>
   <si>
-    <t>to</t>
+    <t>to_object</t>
   </si>
   <si>
     <t>Element at arrowhead</t>
@@ -7822,7 +7822,7 @@
     <t>Reaction string</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compartment' name='Compartment' date='2020-03-10 00:00:38' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compartment' name='Compartment' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -7876,7 +7876,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compound' name='Compound' date='2020-03-10 00:00:38' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compound' name='Compound' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -7939,7 +7939,7 @@
     <t>!NameForPlots</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Definition' name='Definition' date='2020-03-10 00:00:38' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Definition' name='Definition' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -7951,7 +7951,7 @@
     <t>!IsPartOf</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Enzyme' name='Enzyme' date='2020-03-10 00:00:38' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Enzyme' name='Enzyme' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -7972,7 +7972,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='FbcObjective' name='FbcObjective' date='2020-03-10 00:00:38' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='FbcObjective' name='FbcObjective' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -7987,7 +7987,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Gene' name='Gene' date='2020-03-10 00:00:38' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Gene' name='Gene' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -8017,7 +8017,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Layout' name='Layout' date='2020-03-10 00:00:38' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Layout' name='Layout' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -8053,7 +8053,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Measurement' name='Measurement' date='2020-03-10 00:00:38' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Measurement' name='Measurement' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -8065,7 +8065,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='PbConfig' name='PbConfig' date='2020-03-10 00:00:38' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='PbConfig' name='PbConfig' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -8074,16 +8074,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Position' name='Position' date='2020-03-10 00:00:38' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Position' name='Position' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Protein' name='Protein' date='2020-03-10 00:00:38' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Quantity' name='Quantity' date='2020-03-10 00:00:39' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Protein' name='Protein' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Quantity' name='Quantity' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -8245,7 +8245,7 @@
     <t>!Parameter:SBML:parameter:id</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityInfo' name='QuantityInfo' date='2020-03-10 00:00:39' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityInfo' name='QuantityInfo' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -8263,7 +8263,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-10 00:00:39' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityMatrix' name='QuantityMatrix' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -8302,7 +8302,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Reaction' name='Reaction' date='2020-03-10 00:00:39' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Reaction' name='Reaction' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -8374,7 +8374,7 @@
     <t>!Regulator</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-10 00:00:39' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -8386,7 +8386,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Regulator' name='Regulator' date='2020-03-10 00:00:39' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Regulator' name='Regulator' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -8398,13 +8398,13 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relation' name='Relation' date='2020-03-10 00:00:39' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!From</t>
-  </si>
-  <si>
-    <t>!To</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relation' name='Relation' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+  </si>
+  <si>
+    <t>!FromObject</t>
+  </si>
+  <si>
+    <t>!ToObject</t>
   </si>
   <si>
     <t>!IsSymmetric</t>
@@ -8413,13 +8413,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relationship' name='Relationship' date='2020-03-10 00:00:39' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relationship' name='Relationship' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrix' name='SparseMatrix' date='2020-03-10 00:00:39' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrix' name='SparseMatrix' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -8428,13 +8428,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-10 00:00:39' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-10 00:00:39' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -8443,19 +8443,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-10 00:00:39' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-10 00:00:39' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-10 00:00:39' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -8476,7 +8476,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-10 00:00:39' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconReactionList' name='rxnconReactionList' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -22311,10 +22311,10 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Type of quantitative relation&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Type of quantitative relation&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F3:F12">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="From" error="Element at beginning of arrow&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="From" prompt="Element at beginning of arrow&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G3:G12">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="To" error="Element at arrowhead&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="To" prompt="Element at arrowhead&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H3:H12">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="FromObject" error="Element at beginning of arrow&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="FromObject" prompt="Element at beginning of arrow&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G3:G12">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ToObject" error="Element at arrowhead&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ToObject" prompt="Element at arrowhead&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H3:H12">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsSymmetric" error="Flag indicating non-symmetric relations&#10;&#10;Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="IsSymmetric" prompt="Flag indicating non-symmetric relations&#10;&#10;Select &quot;True&quot; or &quot;False&quot;." sqref="I3:I12">
@@ -22476,10 +22476,10 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A12">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="From" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="From" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B12">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="To" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="To" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C3:C12">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="FromObject" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="FromObject" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B12">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ToObject" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ToObject" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C3:C12">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be an integer." promptTitle="Value" prompt="Enter an integer." sqref="D3:D12">

--- a/examples/sbtab/template.xlsx
+++ b/examples/sbtab/template.xlsx
@@ -6427,10 +6427,10 @@
     <t>'!!rxnconReactionList'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.9' date='2020-04-26 21:10:56'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.9' date='2020-04-27 01:14:00'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -6526,7 +6526,7 @@
     <t>rxnconReactionList</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' name='SBtab' description='Table/model and column/attribute definitions' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' name='SBtab' description='Table/model and column/attribute definitions' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -7822,7 +7822,7 @@
     <t>Reaction string</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compartment' name='Compartment' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compartment' name='Compartment' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -7876,7 +7876,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compound' name='Compound' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compound' name='Compound' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -7939,7 +7939,7 @@
     <t>!NameForPlots</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Definition' name='Definition' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Definition' name='Definition' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -7951,7 +7951,7 @@
     <t>!IsPartOf</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Enzyme' name='Enzyme' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Enzyme' name='Enzyme' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -7972,7 +7972,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='FbcObjective' name='FbcObjective' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='FbcObjective' name='FbcObjective' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -7987,7 +7987,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Gene' name='Gene' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Gene' name='Gene' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -8017,7 +8017,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Layout' name='Layout' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Layout' name='Layout' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -8053,7 +8053,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Measurement' name='Measurement' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Measurement' name='Measurement' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -8065,7 +8065,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='PbConfig' name='PbConfig' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='PbConfig' name='PbConfig' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -8074,16 +8074,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Position' name='Position' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Position' name='Position' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Protein' name='Protein' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Quantity' name='Quantity' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Protein' name='Protein' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Quantity' name='Quantity' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -8245,7 +8245,7 @@
     <t>!Parameter:SBML:parameter:id</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityInfo' name='QuantityInfo' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityInfo' name='QuantityInfo' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -8263,7 +8263,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityMatrix' name='QuantityMatrix' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityMatrix' name='QuantityMatrix' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -8302,7 +8302,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Reaction' name='Reaction' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Reaction' name='Reaction' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -8374,7 +8374,7 @@
     <t>!Regulator</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -8386,7 +8386,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Regulator' name='Regulator' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Regulator' name='Regulator' date='2020-04-27 01:14:00' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -8398,7 +8398,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relation' name='Relation' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relation' name='Relation' date='2020-04-27 01:14:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!FromObject</t>
@@ -8413,13 +8413,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relationship' name='Relationship' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relationship' name='Relationship' date='2020-04-27 01:14:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrix' name='SparseMatrix' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrix' name='SparseMatrix' date='2020-04-27 01:14:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -8428,13 +8428,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-04-27 01:14:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-04-27 01:14:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -8443,19 +8443,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixRow' name='SparseMatrixRow' date='2020-04-27 01:14:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-04-27 01:14:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconContingencyList' name='rxnconContingencyList' date='2020-04-27 01:14:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -8476,7 +8476,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconReactionList' name='rxnconReactionList' date='2020-04-26 21:10:56' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconReactionList' name='rxnconReactionList' date='2020-04-27 01:14:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>

--- a/examples/sbtab/template.xlsx
+++ b/examples/sbtab/template.xlsx
@@ -154,10 +154,10 @@
     <t>'!!rxnconReactionList'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables schema='SBtab' objTablesVersion='1.0.1' date='2020-07-07 21:43:42'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!!ObjTables schema='SBtab' objTablesVersion='1.0.1' date='2020-07-07 22:05:32'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -253,7 +253,7 @@
     <t>rxnconReactionList</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' name='SBtab' description='Table/model and column/attribute definitions' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' name='SBtab' description='Table/model and column/attribute definitions' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -2116,7 +2116,7 @@
     <t>Reaction string</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compartment' name='Compartment' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compartment' name='Compartment' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -2170,7 +2170,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compound' name='Compound' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compound' name='Compound' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -2233,7 +2233,7 @@
     <t>!NameForPlots</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Definition' name='Definition' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Definition' name='Definition' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -2245,7 +2245,7 @@
     <t>!IsPartOf</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Enzyme' name='Enzyme' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Enzyme' name='Enzyme' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -2266,7 +2266,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='FbcObjective' name='FbcObjective' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='FbcObjective' name='FbcObjective' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -2281,7 +2281,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Gene' name='Gene' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Gene' name='Gene' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -2311,7 +2311,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Layout' name='Layout' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Layout' name='Layout' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -2347,7 +2347,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Measurement' name='Measurement' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Measurement' name='Measurement' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -2359,7 +2359,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='PbConfig' name='PbConfig' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='PbConfig' name='PbConfig' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -2368,16 +2368,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Position' name='Position' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Position' name='Position' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Protein' name='Protein' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Quantity' name='Quantity' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Protein' name='Protein' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Quantity' name='Quantity' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -2539,7 +2539,7 @@
     <t>!Parameter:SBML:parameter:id</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityInfo' name='QuantityInfo' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityInfo' name='QuantityInfo' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -2557,7 +2557,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityMatrix' name='QuantityMatrix' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityMatrix' name='QuantityMatrix' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -2596,7 +2596,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Reaction' name='Reaction' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Reaction' name='Reaction' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -2668,7 +2668,7 @@
     <t>!Regulator</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -2680,7 +2680,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Regulator' name='Regulator' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Regulator' name='Regulator' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -2692,7 +2692,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relation' name='Relation' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relation' name='Relation' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!FromObject</t>
@@ -2707,13 +2707,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relationship' name='Relationship' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relationship' name='Relationship' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrix' name='SparseMatrix' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrix' name='SparseMatrix' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -2722,13 +2722,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -2737,19 +2737,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixRow' name='SparseMatrixRow' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixRow' name='SparseMatrixRow' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconContingencyList' name='rxnconContingencyList' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconContingencyList' name='rxnconContingencyList' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -2770,7 +2770,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconReactionList' name='rxnconReactionList' date='2020-07-07 21:43:42' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconReactionList' name='rxnconReactionList' date='2020-07-07 22:05:32' objTablesVersion='1.0.1'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
